--- a/Examples/ccplant/ccplant_model.xlsx
+++ b/Examples/ccplant/ccplant_model.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\ExIOLab\Examples\ccplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\ccplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AEBCF0-17AD-4079-9D7B-7A44F765B205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D943368E-7857-4DED-A336-E23BDD1D2737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="3210" windowWidth="22275" windowHeight="12270" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
-    <sheet name="Thermodynamic Properties" sheetId="12" r:id="rId2"/>
-    <sheet name="Validate" sheetId="9" r:id="rId3"/>
-    <sheet name="Flows" sheetId="1" r:id="rId4"/>
-    <sheet name="Processes" sheetId="2" r:id="rId5"/>
-    <sheet name="Exergy" sheetId="3" r:id="rId6"/>
-    <sheet name="Format" sheetId="6" r:id="rId7"/>
-    <sheet name="WasteDefinition" sheetId="8" r:id="rId8"/>
-    <sheet name="WasteAllocation" sheetId="11" r:id="rId9"/>
-    <sheet name="ResourcesCost" sheetId="10" r:id="rId10"/>
+    <sheet name="Validate" sheetId="9" r:id="rId2"/>
+    <sheet name="Flows" sheetId="1" r:id="rId3"/>
+    <sheet name="Processes" sheetId="2" r:id="rId4"/>
+    <sheet name="Exergy" sheetId="3" r:id="rId5"/>
+    <sheet name="Format" sheetId="6" r:id="rId6"/>
+    <sheet name="WasteDefinition" sheetId="8" r:id="rId7"/>
+    <sheet name="WasteAllocation" sheetId="11" r:id="rId8"/>
+    <sheet name="ResourcesCost" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Thermodynamic Properties'!$A$1:$G$18</definedName>
-    <definedName name="cgam_flows" localSheetId="3">Flows!$A$1:$B$10</definedName>
-    <definedName name="cgam_processes" localSheetId="4">Processes!$A$1:$E$1</definedName>
-    <definedName name="cgam_sample" localSheetId="5">Exergy!$A$1:$C$1</definedName>
-    <definedName name="gturbo_processes" localSheetId="4">Processes!$G$5:$K$13</definedName>
-    <definedName name="tgas_c0" localSheetId="9">ResourcesCost!$A$1:$C$2</definedName>
-    <definedName name="tgas_fmt" localSheetId="6">Format!$A$1:$D$7</definedName>
+    <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$10</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
+    <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$1</definedName>
+    <definedName name="gturbo_processes" localSheetId="3">Processes!$G$5:$K$13</definedName>
+    <definedName name="tgas_c0" localSheetId="8">ResourcesCost!$A$1:$C$2</definedName>
+    <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -114,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
   <si>
     <t>key</t>
   </si>
@@ -146,9 +144,6 @@
     <t>DISSIPATIVE</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
@@ -221,9 +216,6 @@
     <t>QC</t>
   </si>
   <si>
-    <t>GN</t>
-  </si>
-  <si>
     <t>COND</t>
   </si>
   <si>
@@ -254,9 +246,6 @@
     <t>WTV</t>
   </si>
   <si>
-    <t>WB</t>
-  </si>
-  <si>
     <t>QG</t>
   </si>
   <si>
@@ -281,9 +270,6 @@
     <t>A3-A4</t>
   </si>
   <si>
-    <t>WB+WN</t>
-  </si>
-  <si>
     <t>COMB</t>
   </si>
   <si>
@@ -305,15 +291,6 @@
     <t>STCK</t>
   </si>
   <si>
-    <t>TG1</t>
-  </si>
-  <si>
-    <t>TV1</t>
-  </si>
-  <si>
-    <t>ALT2</t>
-  </si>
-  <si>
     <t>Bomba alimentacion</t>
   </si>
   <si>
@@ -359,30 +336,6 @@
     <t>PROCESS</t>
   </si>
   <si>
-    <t>Nr</t>
-  </si>
-  <si>
-    <t>E (kW)</t>
-  </si>
-  <si>
-    <t>T (ºC)</t>
-  </si>
-  <si>
-    <t>h (kJ/kg)</t>
-  </si>
-  <si>
-    <t>m (kg/s)</t>
-  </si>
-  <si>
-    <t>p (bar)</t>
-  </si>
-  <si>
-    <t>s (kJ/kg K)</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -390,6 +343,39 @@
   </si>
   <si>
     <t>(c/kWh)</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>GT98</t>
+  </si>
+  <si>
+    <t>ST89</t>
+  </si>
+  <si>
+    <t>CMP84</t>
+  </si>
+  <si>
+    <t>ALT97</t>
+  </si>
+  <si>
+    <t>TG1080</t>
+  </si>
+  <si>
+    <t>PVAC8</t>
+  </si>
+  <si>
+    <t>NET85</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>WP+WN</t>
   </si>
 </sst>
 </file>
@@ -405,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,12 +407,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,12 +429,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,7 +860,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -893,485 +872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>21371.399999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>17377.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6">
-        <v>12220.199999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7">
-        <v>2126.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9">
-        <v>592.80000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10">
-        <v>314.39999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11">
-        <v>25.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000000000000}">
-          <x14:formula1>
-            <xm:f>Validate!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>242.1</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>68818</v>
-      </c>
-      <c r="C3">
-        <v>242.1</v>
-      </c>
-      <c r="D3">
-        <v>331.2</v>
-      </c>
-      <c r="E3">
-        <v>9.1</v>
-      </c>
-      <c r="F3">
-        <v>312.5</v>
-      </c>
-      <c r="G3">
-        <v>9.6339999999999995E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>203917</v>
-      </c>
-      <c r="C4">
-        <v>246.1</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-      <c r="E4">
-        <v>9.0090000000000003</v>
-      </c>
-      <c r="F4">
-        <v>1147</v>
-      </c>
-      <c r="G4">
-        <v>1.0840000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>66513</v>
-      </c>
-      <c r="C5">
-        <v>246.1</v>
-      </c>
-      <c r="D5">
-        <v>552.20000000000005</v>
-      </c>
-      <c r="E5">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="F5">
-        <v>622.70000000000005</v>
-      </c>
-      <c r="G5">
-        <v>1.202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>6552</v>
-      </c>
-      <c r="C6">
-        <v>246.1</v>
-      </c>
-      <c r="D6">
-        <v>150.9</v>
-      </c>
-      <c r="E6">
-        <v>1.014</v>
-      </c>
-      <c r="F6">
-        <v>153.19999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.43169999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>234.8</v>
-      </c>
-      <c r="C7">
-        <v>35.020000000000003</v>
-      </c>
-      <c r="D7">
-        <v>39.31</v>
-      </c>
-      <c r="E7">
-        <v>42.2</v>
-      </c>
-      <c r="F7">
-        <v>168.3</v>
-      </c>
-      <c r="G7">
-        <v>0.56140000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>48646</v>
-      </c>
-      <c r="C8">
-        <v>35.020000000000003</v>
-      </c>
-      <c r="D8">
-        <v>510.4</v>
-      </c>
-      <c r="E8">
-        <v>41.37</v>
-      </c>
-      <c r="F8">
-        <v>3468</v>
-      </c>
-      <c r="G8">
-        <v>7.1040000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4882</v>
-      </c>
-      <c r="C9">
-        <v>35.020000000000003</v>
-      </c>
-      <c r="D9">
-        <v>39.01</v>
-      </c>
-      <c r="E9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F9">
-        <v>2395</v>
-      </c>
-      <c r="G9">
-        <v>7.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>84.63</v>
-      </c>
-      <c r="C10">
-        <v>35.020000000000003</v>
-      </c>
-      <c r="D10">
-        <v>39.01</v>
-      </c>
-      <c r="E10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F10">
-        <v>163.4</v>
-      </c>
-      <c r="G10">
-        <v>0.55900000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>210706</v>
-      </c>
-      <c r="C11">
-        <v>3.952</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="F11">
-        <v>53310</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>74441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>54470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>37545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>174.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>6552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>4760</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja2">
     <tabColor rgb="FFC00000"/>
@@ -1389,16 +890,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1409,10 +910,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1423,10 +924,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,25 +935,25 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1461,13 +962,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +987,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1494,7 +995,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1502,7 +1003,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1510,7 +1011,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1518,7 +1019,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1526,7 +1027,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1534,7 +1035,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1542,7 +1043,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1550,7 +1051,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1558,7 +1059,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1566,7 +1067,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1574,7 +1075,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1582,7 +1083,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1590,7 +1091,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1598,18 +1099,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1629,13 +1130,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,16 +1173,16 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1689,16 +1190,16 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1706,16 +1207,16 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1723,16 +1224,16 @@
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1740,16 +1241,16 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1757,16 +1258,16 @@
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1774,16 +1275,16 @@
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1791,16 +1292,16 @@
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1808,16 +1309,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1840,12 +1341,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1859,344 +1362,505 @@
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
+      <c r="B1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>52513</v>
+      </c>
+      <c r="C2">
+        <v>52835</v>
+      </c>
+      <c r="D2">
+        <v>52769</v>
+      </c>
+      <c r="E2">
+        <v>53517</v>
+      </c>
+      <c r="F2">
+        <v>53056</v>
+      </c>
+      <c r="G2">
+        <v>53477</v>
+      </c>
+      <c r="H2">
+        <v>52785</v>
+      </c>
+      <c r="I2">
+        <v>50193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>177657</v>
+      </c>
+      <c r="C3">
+        <v>178746</v>
+      </c>
+      <c r="D3">
+        <v>178525</v>
+      </c>
+      <c r="E3">
+        <v>179867</v>
+      </c>
+      <c r="F3">
+        <v>179495</v>
+      </c>
+      <c r="G3">
+        <v>179066</v>
+      </c>
+      <c r="H3">
+        <v>178578</v>
+      </c>
+      <c r="I3">
+        <v>169810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B2">
-        <v>71507</v>
-      </c>
-      <c r="C2">
-        <v>72653</v>
-      </c>
-      <c r="D2">
-        <v>71850</v>
-      </c>
-      <c r="E2">
-        <v>72247</v>
-      </c>
-      <c r="F2">
-        <v>68818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>62159</v>
+      </c>
+      <c r="C4">
+        <v>63406</v>
+      </c>
+      <c r="D4">
+        <v>62462</v>
+      </c>
+      <c r="E4">
+        <v>62932</v>
+      </c>
+      <c r="F4">
+        <v>62802</v>
+      </c>
+      <c r="G4">
+        <v>62282</v>
+      </c>
+      <c r="H4">
+        <v>62481</v>
+      </c>
+      <c r="I4">
+        <v>59413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B3">
-        <v>216960</v>
-      </c>
-      <c r="C3">
-        <v>218948</v>
-      </c>
-      <c r="D3">
-        <v>218002</v>
-      </c>
-      <c r="E3">
-        <v>219207</v>
-      </c>
-      <c r="F3">
-        <v>203917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>3930</v>
+      </c>
+      <c r="C5">
+        <v>3758</v>
+      </c>
+      <c r="D5">
+        <v>3949</v>
+      </c>
+      <c r="E5">
+        <v>3979</v>
+      </c>
+      <c r="F5">
+        <v>3970</v>
+      </c>
+      <c r="G5">
+        <v>4233</v>
+      </c>
+      <c r="H5">
+        <v>4051</v>
+      </c>
+      <c r="I5">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>362.4</v>
+      </c>
+      <c r="C6">
+        <v>371.2</v>
+      </c>
+      <c r="D6">
+        <v>364.2</v>
+      </c>
+      <c r="E6">
+        <v>366.9</v>
+      </c>
+      <c r="F6">
+        <v>366.1</v>
+      </c>
+      <c r="G6">
+        <v>361.3</v>
+      </c>
+      <c r="H6">
+        <v>388</v>
+      </c>
+      <c r="I6">
+        <v>280.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>48739</v>
+      </c>
+      <c r="C7">
+        <v>49924</v>
+      </c>
+      <c r="D7">
+        <v>48977</v>
+      </c>
+      <c r="E7">
+        <v>49345</v>
+      </c>
+      <c r="F7">
+        <v>49243</v>
+      </c>
+      <c r="G7">
+        <v>48592</v>
+      </c>
+      <c r="H7">
+        <v>48991</v>
+      </c>
+      <c r="I7">
+        <v>45938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>4347</v>
+      </c>
+      <c r="C8">
+        <v>4452</v>
+      </c>
+      <c r="D8">
+        <v>4395</v>
+      </c>
+      <c r="E8">
+        <v>4428</v>
+      </c>
+      <c r="F8">
+        <v>4392</v>
+      </c>
+      <c r="G8">
+        <v>4334</v>
+      </c>
+      <c r="H8">
+        <v>4928</v>
+      </c>
+      <c r="I8">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B4">
-        <v>69697</v>
-      </c>
-      <c r="C4">
-        <v>70336</v>
-      </c>
-      <c r="D4">
-        <v>70032</v>
-      </c>
-      <c r="E4">
-        <v>70419</v>
-      </c>
-      <c r="F4">
-        <v>66513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E9">
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <v>81.849999999999994</v>
+      </c>
+      <c r="G9">
+        <v>80.760000000000005</v>
+      </c>
+      <c r="H9">
+        <v>104.7</v>
+      </c>
+      <c r="I9">
+        <v>78.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>191241</v>
+      </c>
+      <c r="C10">
+        <v>192414</v>
+      </c>
+      <c r="D10">
+        <v>192176</v>
+      </c>
+      <c r="E10">
+        <v>192916</v>
+      </c>
+      <c r="F10">
+        <v>193220</v>
+      </c>
+      <c r="G10">
+        <v>192342</v>
+      </c>
+      <c r="H10">
+        <v>192233</v>
+      </c>
+      <c r="I10">
+        <v>182794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B5">
-        <v>7775</v>
-      </c>
-      <c r="C5">
-        <v>7846</v>
-      </c>
-      <c r="D5">
-        <v>7812</v>
-      </c>
-      <c r="E5">
-        <v>7855</v>
-      </c>
-      <c r="F5">
-        <v>6552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6">
-        <v>438.5</v>
-      </c>
-      <c r="C6">
-        <v>442.6</v>
-      </c>
-      <c r="D6">
-        <v>440.7</v>
-      </c>
-      <c r="E6">
-        <v>443.1</v>
-      </c>
-      <c r="F6">
-        <v>234.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7">
-        <v>52447</v>
-      </c>
-      <c r="C7">
-        <v>52927</v>
-      </c>
-      <c r="D7">
-        <v>52699</v>
-      </c>
-      <c r="E7">
-        <v>52990</v>
-      </c>
-      <c r="F7">
-        <v>48646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8">
-        <v>4050</v>
-      </c>
-      <c r="C8">
-        <v>4087</v>
-      </c>
-      <c r="D8">
-        <v>4096</v>
-      </c>
-      <c r="E8">
-        <v>4092</v>
-      </c>
-      <c r="F8">
-        <v>4882</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B11">
+        <v>56907</v>
+      </c>
+      <c r="C11">
+        <v>57256</v>
+      </c>
+      <c r="D11">
+        <v>57185</v>
+      </c>
+      <c r="E11">
+        <v>58305</v>
+      </c>
+      <c r="F11">
+        <v>57495</v>
+      </c>
+      <c r="G11">
+        <v>57952</v>
+      </c>
+      <c r="H11">
+        <v>57202</v>
+      </c>
+      <c r="I11">
+        <v>54393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B9">
-        <v>63.1</v>
-      </c>
-      <c r="C9">
-        <v>63.68</v>
-      </c>
-      <c r="D9">
-        <v>63.4</v>
-      </c>
-      <c r="E9">
-        <v>63.75</v>
-      </c>
-      <c r="F9">
-        <v>84.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>223624</v>
-      </c>
-      <c r="C10">
-        <v>224719</v>
-      </c>
-      <c r="D10">
-        <v>224698</v>
-      </c>
-      <c r="E10">
-        <v>225940</v>
-      </c>
-      <c r="F10">
-        <v>210706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12">
+        <v>51956</v>
+      </c>
+      <c r="C12">
+        <v>50986</v>
+      </c>
+      <c r="D12">
+        <v>52210</v>
+      </c>
+      <c r="E12">
+        <v>51912</v>
+      </c>
+      <c r="F12">
+        <v>52494</v>
+      </c>
+      <c r="G12">
+        <v>52076</v>
+      </c>
+      <c r="H12">
+        <v>52225</v>
+      </c>
+      <c r="I12">
+        <v>49661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="B11">
-        <v>77290</v>
-      </c>
-      <c r="C11">
-        <v>78933</v>
-      </c>
-      <c r="D11">
-        <v>77661</v>
-      </c>
-      <c r="E11">
-        <v>78091</v>
-      </c>
-      <c r="F11">
-        <v>74441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
-        <v>61022</v>
-      </c>
-      <c r="C12">
-        <v>60647</v>
-      </c>
-      <c r="D12">
-        <v>61315</v>
-      </c>
-      <c r="E12">
-        <v>61654</v>
-      </c>
-      <c r="F12">
-        <v>54470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
       <c r="B13">
-        <v>41465</v>
+        <v>40197</v>
       </c>
       <c r="C13">
-        <v>41845</v>
+        <v>41175</v>
       </c>
       <c r="D13">
-        <v>41174</v>
+        <v>39945</v>
       </c>
       <c r="E13">
-        <v>41894</v>
+        <v>40245</v>
       </c>
       <c r="F13">
-        <v>37545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40613</v>
+      </c>
+      <c r="G13">
+        <v>40077</v>
+      </c>
+      <c r="H13">
+        <v>39930</v>
+      </c>
+      <c r="I13">
+        <v>37301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B14">
-        <v>437.5</v>
+        <v>310.5</v>
       </c>
       <c r="C14">
-        <v>441.5</v>
+        <v>318.10000000000002</v>
       </c>
       <c r="D14">
-        <v>439.6</v>
+        <v>312</v>
       </c>
       <c r="E14">
-        <v>442</v>
+        <v>314.39999999999998</v>
       </c>
       <c r="F14">
-        <v>174.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313.7</v>
+      </c>
+      <c r="G14">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="H14">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="I14">
+        <v>222.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="C15">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="D15">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="E15">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F15">
         <v>90000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>90000</v>
+      </c>
+      <c r="H15">
+        <v>90000</v>
+      </c>
+      <c r="I15">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16">
-        <v>7775</v>
+        <v>3930</v>
       </c>
       <c r="C16">
-        <v>7846</v>
+        <v>3758</v>
       </c>
       <c r="D16">
-        <v>7812</v>
+        <v>3949</v>
       </c>
       <c r="E16">
-        <v>7855</v>
+        <v>3979</v>
       </c>
       <c r="F16">
-        <v>6552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3970</v>
+      </c>
+      <c r="G16">
+        <v>4233</v>
+      </c>
+      <c r="H16">
+        <v>4051</v>
+      </c>
+      <c r="I16">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>3986.9</v>
+        <f>B8-B9</f>
+        <v>4266</v>
       </c>
       <c r="C17">
-        <v>4023.32</v>
+        <f t="shared" ref="C17:I17" si="0">C8-C9</f>
+        <v>4369</v>
       </c>
       <c r="D17">
-        <v>4032.6</v>
+        <f t="shared" si="0"/>
+        <v>4313.6000000000004</v>
       </c>
       <c r="E17">
-        <v>4028.25</v>
+        <f t="shared" si="0"/>
+        <v>4346</v>
       </c>
       <c r="F17">
-        <v>4760</v>
+        <f t="shared" si="0"/>
+        <v>4310.1499999999996</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>4253.24</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>4823.3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>4231.22</v>
       </c>
     </row>
   </sheetData>
@@ -2204,13 +1868,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,18 +1887,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -2243,12 +1907,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -2257,12 +1921,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2271,12 +1935,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -2285,12 +1949,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -2299,12 +1963,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2313,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +1985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C3"/>
@@ -2344,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,7 +2017,7 @@
         <v>QG</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2361,10 +2025,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2394,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2405,19 +2069,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>56</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2427,8 +2091,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>57</v>
+      <c r="A3" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2438,8 +2102,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>58</v>
+      <c r="A4" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2449,8 +2113,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>71</v>
+      <c r="A5" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2460,8 +2124,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>59</v>
+      <c r="A6" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2471,8 +2135,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>60</v>
+      <c r="A7" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2484,4 +2148,161 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>Processes!A2</f>
+        <v>COMB</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>Processes!A3</f>
+        <v>COMP</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>21371.399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Processes!A4</f>
+        <v>TGAS</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>17377.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Processes!A5</f>
+        <v>HRSG</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>12220.199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>Processes!A6</f>
+        <v>TVAP</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>2126.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>Processes!A7</f>
+        <v>PUMP</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>Processes!A8</f>
+        <v>ALTN</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>592.80000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>Processes!A9</f>
+        <v>STCK</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>Processes!A10</f>
+        <v>COND</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>314.39999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000000000000}">
+          <x14:formula1>
+            <xm:f>Validate!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Examples/ccplant/ccplant_model.xlsx
+++ b/Examples/ccplant/ccplant_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\ccplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\ccplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D943368E-7857-4DED-A336-E23BDD1D2737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC994F9-92DB-4A99-9459-195AA000FBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -573,11 +573,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gturbo_processes" connectionId="4" xr16:uid="{00000000-0016-0000-0400-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0400-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0400-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gturbo_processes" connectionId="4" xr16:uid="{00000000-0016-0000-0400-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1873,7 +1873,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2084,7 @@
         <v>52</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>53</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>54</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/ccplant/ccplant_model.xlsx
+++ b/Examples/ccplant/ccplant_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\ccplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC994F9-92DB-4A99-9459-195AA000FBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76AC7F2-5771-4025-A7DC-93C2A4E70FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25740" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -860,8 +860,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Examples/ccplant/ccplant_model.xlsx
+++ b/Examples/ccplant/ccplant_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\ccplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76AC7F2-5771-4025-A7DC-93C2A4E70FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0792F4-2F39-4098-A9C2-36C4A98C281A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25740" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12915" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>key</t>
   </si>
@@ -339,12 +339,6 @@
     <t>Base</t>
   </si>
   <si>
-    <t>(c/h)</t>
-  </si>
-  <si>
-    <t>(c/kWh)</t>
-  </si>
-  <si>
     <t>REF</t>
   </si>
   <si>
@@ -376,6 +370,9 @@
   </si>
   <si>
     <t>WP+WN</t>
+  </si>
+  <si>
+    <t>kW</t>
   </si>
 </sst>
 </file>
@@ -507,26 +504,26 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>238904</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18377EC0-22FE-E5BE-6F4C-EC3222A6D5EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -537,30 +534,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="752475" y="400050"/>
-          <a:ext cx="5514975" cy="5410200"/>
+          <a:off x="752475" y="1219200"/>
+          <a:ext cx="5582429" cy="4953691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -860,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1036,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1083,7 +1068,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1171,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1179,7 +1164,7 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -1188,7 +1173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1205,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1222,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1239,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1264,7 +1249,7 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
@@ -1273,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1284,13 +1269,13 @@
         <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1367,28 +1352,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1625,7 +1610,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>191241</v>
@@ -1741,7 +1726,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>310.5</v>
@@ -1873,8 +1858,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2060,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2069,7 @@
         <v>52</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2092,57 +2077,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2114,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>

--- a/Examples/ccplant/ccplant_model.xlsx
+++ b/Examples/ccplant/ccplant_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\ccplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0792F4-2F39-4098-A9C2-36C4A98C281A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B669C5F-1D62-4D85-B3D9-CBE7647AD5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12915" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -25,9 +25,9 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$10</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$1</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$1</definedName>
-    <definedName name="gturbo_processes" localSheetId="3">Processes!$G$5:$K$13</definedName>
+    <definedName name="gturbo_processes" localSheetId="3">Processes!$F$5:$J$13</definedName>
     <definedName name="tgas_c0" localSheetId="8">ResourcesCost!$A$1:$C$2</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -558,11 +558,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0400-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gturbo_processes" connectionId="4" xr16:uid="{00000000-0016-0000-0400-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gturbo_processes" connectionId="4" xr16:uid="{00000000-0016-0000-0400-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0400-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1121,22 +1121,21 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1153,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1161,7 +1160,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>83</v>
@@ -1170,7 +1169,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,7 +1177,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1187,7 +1186,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,7 +1194,7 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -1204,7 +1203,7 @@
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1212,7 +1211,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -1221,7 +1220,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,7 +1228,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -1238,7 +1237,7 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,7 +1245,7 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
@@ -1255,7 +1254,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1263,7 +1262,7 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -1272,7 +1271,7 @@
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,7 +1279,7 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -1289,7 +1288,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,7 +1296,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -1306,7 +1305,7 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1317,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E8 E9:E10</xm:sqref>
+          <xm:sqref>B2:B8 B9:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1858,7 +1857,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2095,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
